--- a/Quora.xlsx
+++ b/Quora.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Post Link" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>https://riddlesfun.quora.com/Which-screenshots-deserve-upvotes-2022</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>State.320</t>
+  </si>
+  <si>
+    <t>Upvote</t>
+  </si>
+  <si>
+    <t>Downvote</t>
+  </si>
+  <si>
+    <t>votes</t>
   </si>
 </sst>
 </file>
@@ -430,35 +439,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -511,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quora.xlsx
+++ b/Quora.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Post Link" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>https://riddlesfun.quora.com/Which-screenshots-deserve-upvotes-2022</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>votes</t>
+  </si>
+  <si>
+    <t>daniahmedkhatri@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +561,18 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>